--- a/Documentación/Psp's/Axel/Clase Configuración/DefectsInjected.xlsx
+++ b/Documentación/Psp's/Axel/Clase Configuración/DefectsInjected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7FCB32-2B90-43E1-84D2-C23FD1A6910F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DCB8FF-73B8-4896-A93F-28646F67CEF2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 04:06 PM el 4/12/2018</t>
+    <t>Reporte generado a las 11:22 AM el 5/12/2018</t>
   </si>
 </sst>
 </file>

--- a/Documentación/Psp's/Axel/Clase Configuración/DefectsInjected.xlsx
+++ b/Documentación/Psp's/Axel/Clase Configuración/DefectsInjected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DCB8FF-73B8-4896-A93F-28646F67CEF2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D829952-B1A6-45A6-B799-9FBFFF2CC666}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 11:22 AM el 5/12/2018</t>
+    <t>Reporte generado a las 01:35 PM el 5/12/2018</t>
   </si>
 </sst>
 </file>
